--- a/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
@@ -71,25 +71,25 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
+    <t>Suicide rate is defined as the number of deaths deliberately initiated and performed by a person in the full knowledge or expectation of its fatal outcome. Comparability of data between countries is affected by a number of reporting criteria, including how a person's intention of killing themselves is ascertained, who is responsible for completing the death certificate, whether a forensic investigation is carried out, and the provisions for confidentiality of the cause of death. Caution is required therefore in interpreting variations across countries. This indicator is measured in terms of deaths per 100 000 persons.(Source: OECD)</t>
+  </si>
+  <si>
+    <t>long_indicator_description$en$baseunit</t>
+  </si>
+  <si>
+    <t>per 100,000</t>
+  </si>
+  <si>
+    <t>long_indicator_description$de$text</t>
+  </si>
+  <si>
     <t>Der Indikator Selbstmordrate ist definiert als Anzahl der Tode, die von der verstorbenen Person bewusst herbeigeführt und ausgeführt wurden im vollen Wissen und in der Erwartung des tödlichen Konsequenz. Die Vergleichbarkeit der Daten zwischen den Ländern wird beeinflusst durch die unterschiedlichen Kriterien der Berichtserstattung beispielsweise im Hinblick darauf, wie die Intention der Selbsttötung bewertet wird, wer die Todesbescheinigung ausfüllt, ob eine forenische Untersuchung stattgefunden hat und inwiefern Datenschutzbestimmungen zu Todesursachen bestehen. Ein Ländervergleich ist daher nur eingeschränkt möglich. Der Indikator gibt die Anzahl der Selbstmordfälle pro 100.000 Personen an.</t>
   </si>
   <si>
-    <t>long_indicator_description$en$baseunit</t>
-  </si>
-  <si>
-    <t>Rate pro 100.000</t>
-  </si>
-  <si>
-    <t>long_indicator_description$de$text</t>
-  </si>
-  <si>
-    <t>Suicide rate is defined as the number of deaths deliberately initiated and performed by a person in the full knowledge or expectation of its fatal outcome. Comparability of data between countries is affected by a number of reporting criteria, including how a person's intention of killing themselves is ascertained, who is responsible for completing the death certificate, whether a forensic investigation is carried out, and the provisions for confidentiality of the cause of death. Caution is required therefore in interpreting variations across countries. This indicator is measured in terms of deaths per 100 000 persons.(Source: OECD)</t>
-  </si>
-  <si>
     <t>long_indicator_description$de$baseunit</t>
   </si>
   <si>
-    <t>Rate per 100,000</t>
+    <t>pro 100.000</t>
   </si>
   <si>
     <t>target</t>
@@ -327,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -351,6 +351,10 @@
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -392,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -435,10 +439,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -733,13 +743,13 @@
         <v>2014.0</v>
       </c>
       <c r="C37" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2013.0</v>
+      </c>
+      <c r="E37" s="12">
         <v>2011.0</v>
-      </c>
-      <c r="D37" s="12">
-        <v>2012.0</v>
-      </c>
-      <c r="E37" s="12">
-        <v>2013.0</v>
       </c>
     </row>
     <row r="38">
@@ -750,13 +760,13 @@
         <v>12.2</v>
       </c>
       <c r="C38" s="14">
+        <v>11.4</v>
+      </c>
+      <c r="D38" s="14">
+        <v>11.1</v>
+      </c>
+      <c r="E38" s="14">
         <v>10.6</v>
-      </c>
-      <c r="D38" s="14">
-        <v>11.4</v>
-      </c>
-      <c r="E38" s="14">
-        <v>11.1</v>
       </c>
     </row>
     <row r="39">
@@ -767,13 +777,13 @@
         <v>13.9</v>
       </c>
       <c r="C39" s="14">
+        <v>13.7</v>
+      </c>
+      <c r="D39" s="14">
+        <v>13.6</v>
+      </c>
+      <c r="E39" s="14">
         <v>14.1</v>
-      </c>
-      <c r="D39" s="14">
-        <v>13.7</v>
-      </c>
-      <c r="E39" s="14">
-        <v>13.6</v>
       </c>
     </row>
     <row r="40">
@@ -782,13 +792,13 @@
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="14">
+        <v>17.4</v>
+      </c>
+      <c r="D40" s="14">
+        <v>16.7</v>
+      </c>
+      <c r="E40" s="14">
         <v>18.1</v>
-      </c>
-      <c r="D40" s="14">
-        <v>17.4</v>
-      </c>
-      <c r="E40" s="14">
-        <v>16.7</v>
       </c>
     </row>
     <row r="41">
@@ -797,13 +807,13 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="14">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="D41" s="14">
         <v>5.8</v>
       </c>
       <c r="E41" s="14">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="42">
@@ -811,11 +821,11 @@
         <v>62</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="14">
+      <c r="C42" s="16"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="17">
         <v>10.5</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
@@ -823,13 +833,13 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="D43" s="14">
+        <v>12.2</v>
+      </c>
+      <c r="E43" s="14">
         <v>12.1</v>
-      </c>
-      <c r="D43" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="E43" s="14">
-        <v>12.2</v>
       </c>
     </row>
     <row r="44">
@@ -838,13 +848,13 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="D44" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="E44" s="14">
         <v>12.3</v>
-      </c>
-      <c r="D44" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="E44" s="14">
-        <v>10.3</v>
       </c>
     </row>
     <row r="45">
@@ -853,12 +863,12 @@
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17">
         <v>4.8</v>
       </c>
-      <c r="D45" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="E45" s="15"/>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
@@ -866,13 +876,13 @@
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="D46" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="E46" s="14">
         <v>7.0</v>
-      </c>
-      <c r="D46" s="14">
-        <v>6.6</v>
-      </c>
-      <c r="E46" s="14">
-        <v>6.9</v>
       </c>
     </row>
     <row r="47">
@@ -883,13 +893,13 @@
         <v>13.3</v>
       </c>
       <c r="C47" s="14">
+        <v>14.7</v>
+      </c>
+      <c r="D47" s="14">
+        <v>14.2</v>
+      </c>
+      <c r="E47" s="14">
         <v>14.3</v>
-      </c>
-      <c r="D47" s="14">
-        <v>14.7</v>
-      </c>
-      <c r="E47" s="14">
-        <v>14.2</v>
       </c>
     </row>
     <row r="48">
@@ -900,10 +910,10 @@
         <v>10.7</v>
       </c>
       <c r="C48" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="D48" s="14">
         <v>10.8</v>
-      </c>
-      <c r="D48" s="14">
-        <v>10.5</v>
       </c>
       <c r="E48" s="14">
         <v>10.8</v>
@@ -915,12 +925,12 @@
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="14">
+        <v>11.3</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17">
         <v>10.2</v>
       </c>
-      <c r="D49" s="14">
-        <v>11.3</v>
-      </c>
-      <c r="E49" s="15"/>
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
@@ -930,13 +940,13 @@
         <v>7.5</v>
       </c>
       <c r="C50" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="D50" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="E50" s="14">
         <v>6.3</v>
-      </c>
-      <c r="D50" s="14">
-        <v>6.9</v>
-      </c>
-      <c r="E50" s="14">
-        <v>7.5</v>
       </c>
     </row>
     <row r="51">
@@ -947,13 +957,13 @@
         <v>17.3</v>
       </c>
       <c r="C51" s="14">
+        <v>16.6</v>
+      </c>
+      <c r="D51" s="14">
+        <v>15.2</v>
+      </c>
+      <c r="E51" s="14">
         <v>15.3</v>
-      </c>
-      <c r="D51" s="14">
-        <v>16.6</v>
-      </c>
-      <c r="E51" s="14">
-        <v>15.2</v>
       </c>
     </row>
     <row r="52">
@@ -964,13 +974,13 @@
         <v>14.2</v>
       </c>
       <c r="C52" s="14">
+        <v>15.6</v>
+      </c>
+      <c r="D52" s="14">
+        <v>15.8</v>
+      </c>
+      <c r="E52" s="14">
         <v>16.4</v>
-      </c>
-      <c r="D52" s="14">
-        <v>15.6</v>
-      </c>
-      <c r="E52" s="14">
-        <v>15.8</v>
       </c>
     </row>
     <row r="53">
@@ -979,13 +989,13 @@
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="14">
+        <v>14.6</v>
+      </c>
+      <c r="D53" s="14">
+        <v>14.4</v>
+      </c>
+      <c r="E53" s="14">
         <v>15.8</v>
-      </c>
-      <c r="D53" s="14">
-        <v>14.6</v>
-      </c>
-      <c r="E53" s="14">
-        <v>14.4</v>
       </c>
     </row>
     <row r="54">
@@ -997,10 +1007,10 @@
         <v>6.9</v>
       </c>
       <c r="D54" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="E54" s="14">
         <v>6.9</v>
-      </c>
-      <c r="E54" s="14">
-        <v>7.5</v>
       </c>
     </row>
     <row r="55">
@@ -1009,12 +1019,12 @@
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17">
         <v>3.9</v>
       </c>
-      <c r="D55" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="E55" s="15"/>
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
@@ -1024,13 +1034,13 @@
         <v>18.0</v>
       </c>
       <c r="C56" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="D56" s="14">
+        <v>19.4</v>
+      </c>
+      <c r="E56" s="14">
         <v>22.8</v>
-      </c>
-      <c r="D56" s="14">
-        <v>22.0</v>
-      </c>
-      <c r="E56" s="14">
-        <v>19.4</v>
       </c>
     </row>
     <row r="57">
@@ -1039,13 +1049,13 @@
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="14">
+        <v>12.1</v>
+      </c>
+      <c r="D57" s="14">
+        <v>10.8</v>
+      </c>
+      <c r="E57" s="14">
         <v>12.2</v>
-      </c>
-      <c r="D57" s="14">
-        <v>12.1</v>
-      </c>
-      <c r="E57" s="14">
-        <v>10.8</v>
       </c>
     </row>
     <row r="58">
@@ -1054,13 +1064,13 @@
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="D58" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="E58" s="14">
         <v>6.2</v>
-      </c>
-      <c r="D58" s="14">
-        <v>6.4</v>
-      </c>
-      <c r="E58" s="14">
-        <v>5.5</v>
       </c>
     </row>
     <row r="59">
@@ -1069,12 +1079,12 @@
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17">
         <v>6.2</v>
       </c>
-      <c r="D59" s="14">
-        <v>6.3</v>
-      </c>
-      <c r="E59" s="15"/>
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
@@ -1082,13 +1092,13 @@
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="14">
+        <v>19.1</v>
+      </c>
+      <c r="D60" s="14">
+        <v>18.7</v>
+      </c>
+      <c r="E60" s="14">
         <v>20.9</v>
-      </c>
-      <c r="D60" s="14">
-        <v>19.1</v>
-      </c>
-      <c r="E60" s="14">
-        <v>18.7</v>
       </c>
     </row>
     <row r="61">
@@ -1097,13 +1107,13 @@
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="14">
+        <v>29.1</v>
+      </c>
+      <c r="D61" s="14">
+        <v>28.7</v>
+      </c>
+      <c r="E61" s="14">
         <v>33.3</v>
-      </c>
-      <c r="D61" s="14">
-        <v>29.1</v>
-      </c>
-      <c r="E61" s="14">
-        <v>28.7</v>
       </c>
     </row>
     <row r="62">
@@ -1114,13 +1124,13 @@
         <v>27.1</v>
       </c>
       <c r="C62" s="14">
+        <v>29.5</v>
+      </c>
+      <c r="D62" s="14">
+        <v>31.5</v>
+      </c>
+      <c r="E62" s="14">
         <v>32.2</v>
-      </c>
-      <c r="D62" s="14">
-        <v>29.5</v>
-      </c>
-      <c r="E62" s="14">
-        <v>31.5</v>
       </c>
     </row>
     <row r="63">
@@ -1131,13 +1141,13 @@
         <v>12.3</v>
       </c>
       <c r="C63" s="14">
+        <v>9.4</v>
+      </c>
+      <c r="D63" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="E63" s="14">
         <v>10.4</v>
-      </c>
-      <c r="D63" s="14">
-        <v>9.4</v>
-      </c>
-      <c r="E63" s="14">
-        <v>7.3</v>
       </c>
     </row>
     <row r="64">
@@ -1148,13 +1158,13 @@
         <v>16.3</v>
       </c>
       <c r="C64" s="14">
+        <v>20.5</v>
+      </c>
+      <c r="D64" s="14">
+        <v>16.1</v>
+      </c>
+      <c r="E64" s="14">
         <v>19.9</v>
-      </c>
-      <c r="D64" s="14">
-        <v>20.5</v>
-      </c>
-      <c r="E64" s="14">
-        <v>16.1</v>
       </c>
     </row>
     <row r="65">
@@ -1163,10 +1173,10 @@
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="D65" s="14">
         <v>5.2</v>
-      </c>
-      <c r="D65" s="14">
-        <v>5.0</v>
       </c>
       <c r="E65" s="14">
         <v>5.2</v>
@@ -1178,12 +1188,12 @@
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="17">
         <v>9.5</v>
       </c>
-      <c r="D66" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="E66" s="15"/>
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
@@ -1191,13 +1201,13 @@
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="14">
+        <v>10.2</v>
+      </c>
+      <c r="D67" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="E67" s="14">
         <v>12.1</v>
-      </c>
-      <c r="D67" s="14">
-        <v>10.2</v>
-      </c>
-      <c r="E67" s="14">
-        <v>10.5</v>
       </c>
     </row>
     <row r="68">
@@ -1208,13 +1218,13 @@
         <v>10.9</v>
       </c>
       <c r="C68" s="14">
+        <v>12.4</v>
+      </c>
+      <c r="D68" s="14">
+        <v>10.8</v>
+      </c>
+      <c r="E68" s="14">
         <v>11.3</v>
-      </c>
-      <c r="D68" s="14">
-        <v>12.4</v>
-      </c>
-      <c r="E68" s="14">
-        <v>10.8</v>
       </c>
     </row>
     <row r="69">
@@ -1225,13 +1235,13 @@
         <v>14.7</v>
       </c>
       <c r="C69" s="14">
+        <v>15.7</v>
+      </c>
+      <c r="D69" s="14">
+        <v>15.3</v>
+      </c>
+      <c r="E69" s="14">
         <v>15.1</v>
-      </c>
-      <c r="D69" s="14">
-        <v>15.7</v>
-      </c>
-      <c r="E69" s="14">
-        <v>15.3</v>
       </c>
     </row>
     <row r="70">
@@ -1242,13 +1252,13 @@
         <v>10.0</v>
       </c>
       <c r="C70" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="D70" s="14">
+        <v>8.7</v>
+      </c>
+      <c r="E70" s="14">
         <v>8.6</v>
-      </c>
-      <c r="D70" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="E70" s="14">
-        <v>8.7</v>
       </c>
     </row>
     <row r="71">
@@ -1256,11 +1266,11 @@
         <v>91</v>
       </c>
       <c r="B71" s="15"/>
-      <c r="C71" s="14">
+      <c r="C71" s="16"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="17">
         <v>21.0</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
@@ -1269,13 +1279,13 @@
       <c r="B72" s="14">
         <v>9.6</v>
       </c>
-      <c r="C72" s="15"/>
+      <c r="C72" s="17">
+        <v>10.1</v>
+      </c>
       <c r="D72" s="14">
-        <v>10.1</v>
-      </c>
-      <c r="E72" s="14">
         <v>10.8</v>
       </c>
+      <c r="E72" s="16"/>
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
@@ -1285,13 +1295,13 @@
         <v>11.4</v>
       </c>
       <c r="C73" s="14">
+        <v>11.6</v>
+      </c>
+      <c r="D73" s="14">
+        <v>12.3</v>
+      </c>
+      <c r="E73" s="14">
         <v>11.4</v>
-      </c>
-      <c r="D73" s="14">
-        <v>11.6</v>
-      </c>
-      <c r="E73" s="14">
-        <v>12.3</v>
       </c>
     </row>
     <row r="74">
@@ -1300,13 +1310,13 @@
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="D74" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="E74" s="14">
         <v>1.7</v>
-      </c>
-      <c r="D74" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="E74" s="14">
-        <v>2.6</v>
       </c>
     </row>
     <row r="75">
@@ -1315,13 +1325,13 @@
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="D75" s="14">
+        <v>13.1</v>
+      </c>
+      <c r="E75" s="14">
         <v>12.8</v>
-      </c>
-      <c r="D75" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="E75" s="14">
-        <v>13.1</v>
       </c>
     </row>
     <row r="76">
@@ -1332,13 +1342,13 @@
         <v>1.2</v>
       </c>
       <c r="C76" s="14">
+        <v>1.1</v>
+      </c>
+      <c r="D76" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E76" s="14">
         <v>0.8</v>
-      </c>
-      <c r="D76" s="14">
-        <v>1.1</v>
-      </c>
-      <c r="E76" s="14">
-        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Health_Suicide_Rate_OECD_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Health_Suicide_Rate_OECD_2013" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>original_title</t>
   </si>
@@ -222,12 +222,6 @@
   </si>
   <si>
     <t>Chile</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
   </si>
   <si>
     <t>Czech Republic</t>
@@ -327,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -354,6 +348,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -396,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -440,6 +438,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -743,10 +747,10 @@
         <v>2014.0</v>
       </c>
       <c r="C37" s="12">
+        <v>2013.0</v>
+      </c>
+      <c r="D37" s="12">
         <v>2012.0</v>
-      </c>
-      <c r="D37" s="12">
-        <v>2013.0</v>
       </c>
       <c r="E37" s="12">
         <v>2011.0</v>
@@ -760,10 +764,10 @@
         <v>12.2</v>
       </c>
       <c r="C38" s="14">
+        <v>11.1</v>
+      </c>
+      <c r="D38" s="14">
         <v>11.4</v>
-      </c>
-      <c r="D38" s="14">
-        <v>11.1</v>
       </c>
       <c r="E38" s="14">
         <v>10.6</v>
@@ -777,10 +781,10 @@
         <v>13.9</v>
       </c>
       <c r="C39" s="14">
+        <v>13.6</v>
+      </c>
+      <c r="D39" s="14">
         <v>13.7</v>
-      </c>
-      <c r="D39" s="14">
-        <v>13.6</v>
       </c>
       <c r="E39" s="14">
         <v>14.1</v>
@@ -790,12 +794,14 @@
       <c r="A40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="15">
+        <v>16.7</v>
+      </c>
       <c r="C40" s="14">
+        <v>16.7</v>
+      </c>
+      <c r="D40" s="14">
         <v>17.4</v>
-      </c>
-      <c r="D40" s="14">
-        <v>16.7</v>
       </c>
       <c r="E40" s="14">
         <v>18.1</v>
@@ -805,7 +811,9 @@
       <c r="A41" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="15">
+        <v>5.8</v>
+      </c>
       <c r="C41" s="14">
         <v>5.8</v>
       </c>
@@ -820,10 +828,12 @@
       <c r="A42" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="17">
+      <c r="B42" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19">
         <v>10.5</v>
       </c>
     </row>
@@ -831,12 +841,14 @@
       <c r="A43" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="15">
+        <v>12.2</v>
+      </c>
       <c r="C43" s="14">
+        <v>12.2</v>
+      </c>
+      <c r="D43" s="14">
         <v>12.0</v>
-      </c>
-      <c r="D43" s="14">
-        <v>12.2</v>
       </c>
       <c r="E43" s="14">
         <v>12.1</v>
@@ -846,12 +858,14 @@
       <c r="A44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="15">
+        <v>10.3</v>
+      </c>
       <c r="C44" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="D44" s="14">
         <v>11.0</v>
-      </c>
-      <c r="D44" s="14">
-        <v>10.3</v>
       </c>
       <c r="E44" s="14">
         <v>12.3</v>
@@ -861,45 +875,49 @@
       <c r="A45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="14">
+        <v>13.3</v>
+      </c>
       <c r="C45" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17">
-        <v>4.8</v>
+        <v>14.2</v>
+      </c>
+      <c r="D45" s="14">
+        <v>14.7</v>
+      </c>
+      <c r="E45" s="14">
+        <v>14.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="14">
+        <v>10.7</v>
+      </c>
       <c r="C46" s="14">
-        <v>6.6</v>
+        <v>10.8</v>
       </c>
       <c r="D46" s="14">
-        <v>6.9</v>
+        <v>10.5</v>
       </c>
       <c r="E46" s="14">
-        <v>7.0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="14">
-        <v>13.3</v>
-      </c>
-      <c r="C47" s="14">
-        <v>14.7</v>
-      </c>
+      <c r="B47" s="15">
+        <v>11.3</v>
+      </c>
+      <c r="C47" s="18"/>
       <c r="D47" s="14">
-        <v>14.2</v>
-      </c>
-      <c r="E47" s="14">
-        <v>14.3</v>
+        <v>11.3</v>
+      </c>
+      <c r="E47" s="19">
+        <v>10.2</v>
       </c>
     </row>
     <row r="48">
@@ -907,29 +925,33 @@
         <v>68</v>
       </c>
       <c r="B48" s="14">
-        <v>10.7</v>
+        <v>7.5</v>
       </c>
       <c r="C48" s="14">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="D48" s="14">
-        <v>10.8</v>
+        <v>6.9</v>
       </c>
       <c r="E48" s="14">
-        <v>10.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="14">
+        <v>17.3</v>
+      </c>
       <c r="C49" s="14">
-        <v>11.3</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17">
-        <v>10.2</v>
+        <v>15.2</v>
+      </c>
+      <c r="D49" s="14">
+        <v>16.6</v>
+      </c>
+      <c r="E49" s="14">
+        <v>15.3</v>
       </c>
     </row>
     <row r="50">
@@ -937,183 +959,199 @@
         <v>70</v>
       </c>
       <c r="B50" s="14">
-        <v>7.5</v>
+        <v>14.2</v>
       </c>
       <c r="C50" s="14">
-        <v>6.9</v>
+        <v>15.8</v>
       </c>
       <c r="D50" s="14">
-        <v>7.5</v>
+        <v>15.6</v>
       </c>
       <c r="E50" s="14">
-        <v>6.3</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="14">
-        <v>17.3</v>
+      <c r="B51" s="15">
+        <v>14.4</v>
       </c>
       <c r="C51" s="14">
-        <v>16.6</v>
+        <v>14.4</v>
       </c>
       <c r="D51" s="14">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="E51" s="14">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="14">
-        <v>14.2</v>
+      <c r="B52" s="15">
+        <v>7.5</v>
       </c>
       <c r="C52" s="14">
-        <v>15.6</v>
+        <v>7.5</v>
       </c>
       <c r="D52" s="14">
-        <v>15.8</v>
+        <v>6.9</v>
       </c>
       <c r="E52" s="14">
-        <v>16.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="14">
-        <v>14.6</v>
-      </c>
+      <c r="B53" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="C53" s="18"/>
       <c r="D53" s="14">
-        <v>14.4</v>
-      </c>
-      <c r="E53" s="14">
-        <v>15.8</v>
+        <v>4.2</v>
+      </c>
+      <c r="E53" s="19">
+        <v>3.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="14">
+        <v>18.0</v>
+      </c>
       <c r="C54" s="14">
-        <v>6.9</v>
+        <v>19.4</v>
       </c>
       <c r="D54" s="14">
-        <v>7.5</v>
+        <v>22.0</v>
       </c>
       <c r="E54" s="14">
-        <v>6.9</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="15">
+        <v>10.8</v>
+      </c>
       <c r="C55" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17">
-        <v>3.9</v>
+        <v>10.8</v>
+      </c>
+      <c r="D55" s="14">
+        <v>12.1</v>
+      </c>
+      <c r="E55" s="14">
+        <v>12.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="14">
-        <v>18.0</v>
+      <c r="B56" s="15">
+        <v>5.5</v>
       </c>
       <c r="C56" s="14">
-        <v>22.0</v>
+        <v>5.5</v>
       </c>
       <c r="D56" s="14">
-        <v>19.4</v>
+        <v>6.4</v>
       </c>
       <c r="E56" s="14">
-        <v>22.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="14">
-        <v>12.1</v>
-      </c>
+      <c r="B57" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="C57" s="18"/>
       <c r="D57" s="14">
-        <v>10.8</v>
-      </c>
-      <c r="E57" s="14">
-        <v>12.2</v>
+        <v>6.3</v>
+      </c>
+      <c r="E57" s="19">
+        <v>6.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="15"/>
+      <c r="B58" s="15">
+        <v>18.7</v>
+      </c>
       <c r="C58" s="14">
-        <v>6.4</v>
+        <v>18.7</v>
       </c>
       <c r="D58" s="14">
-        <v>5.5</v>
+        <v>19.1</v>
       </c>
       <c r="E58" s="14">
-        <v>6.2</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="15">
+        <v>28.7</v>
+      </c>
       <c r="C59" s="14">
-        <v>6.3</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17">
-        <v>6.2</v>
+        <v>28.7</v>
+      </c>
+      <c r="D59" s="14">
+        <v>29.1</v>
+      </c>
+      <c r="E59" s="14">
+        <v>33.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="14">
+        <v>27.1</v>
+      </c>
       <c r="C60" s="14">
-        <v>19.1</v>
+        <v>31.5</v>
       </c>
       <c r="D60" s="14">
-        <v>18.7</v>
+        <v>29.5</v>
       </c>
       <c r="E60" s="14">
-        <v>20.9</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="14">
+        <v>12.3</v>
+      </c>
       <c r="C61" s="14">
-        <v>29.1</v>
+        <v>7.3</v>
       </c>
       <c r="D61" s="14">
-        <v>28.7</v>
+        <v>9.4</v>
       </c>
       <c r="E61" s="14">
-        <v>33.3</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="62">
@@ -1121,93 +1159,99 @@
         <v>82</v>
       </c>
       <c r="B62" s="14">
-        <v>27.1</v>
+        <v>16.3</v>
       </c>
       <c r="C62" s="14">
-        <v>29.5</v>
+        <v>16.1</v>
       </c>
       <c r="D62" s="14">
-        <v>31.5</v>
+        <v>20.5</v>
       </c>
       <c r="E62" s="14">
-        <v>32.2</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="14">
-        <v>12.3</v>
+      <c r="B63" s="15">
+        <v>5.2</v>
       </c>
       <c r="C63" s="14">
-        <v>9.4</v>
+        <v>5.2</v>
       </c>
       <c r="D63" s="14">
-        <v>7.3</v>
+        <v>5.0</v>
       </c>
       <c r="E63" s="14">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="14">
-        <v>16.3</v>
-      </c>
-      <c r="C64" s="14">
-        <v>20.5</v>
-      </c>
+      <c r="B64" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="C64" s="18"/>
       <c r="D64" s="14">
-        <v>16.1</v>
-      </c>
-      <c r="E64" s="14">
-        <v>19.9</v>
+        <v>10.0</v>
+      </c>
+      <c r="E64" s="19">
+        <v>9.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="15"/>
+      <c r="B65" s="15">
+        <v>10.5</v>
+      </c>
       <c r="C65" s="14">
-        <v>5.0</v>
+        <v>10.5</v>
       </c>
       <c r="D65" s="14">
-        <v>5.2</v>
+        <v>10.2</v>
       </c>
       <c r="E65" s="14">
-        <v>5.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="15"/>
+      <c r="B66" s="14">
+        <v>10.9</v>
+      </c>
       <c r="C66" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="17">
-        <v>9.5</v>
+        <v>10.8</v>
+      </c>
+      <c r="D66" s="14">
+        <v>12.4</v>
+      </c>
+      <c r="E66" s="14">
+        <v>11.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="15"/>
+      <c r="B67" s="14">
+        <v>14.7</v>
+      </c>
       <c r="C67" s="14">
-        <v>10.2</v>
+        <v>15.3</v>
       </c>
       <c r="D67" s="14">
-        <v>10.5</v>
+        <v>15.7</v>
       </c>
       <c r="E67" s="14">
-        <v>12.1</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="68">
@@ -1215,33 +1259,29 @@
         <v>88</v>
       </c>
       <c r="B68" s="14">
-        <v>10.9</v>
+        <v>10.0</v>
       </c>
       <c r="C68" s="14">
-        <v>12.4</v>
+        <v>8.7</v>
       </c>
       <c r="D68" s="14">
-        <v>10.8</v>
+        <v>9.0</v>
       </c>
       <c r="E68" s="14">
-        <v>11.3</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="14">
-        <v>14.7</v>
-      </c>
-      <c r="C69" s="14">
-        <v>15.7</v>
-      </c>
-      <c r="D69" s="14">
-        <v>15.3</v>
-      </c>
-      <c r="E69" s="14">
-        <v>15.1</v>
+      <c r="B69" s="16">
+        <v>21.0</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19">
+        <v>21.0</v>
       </c>
     </row>
     <row r="70">
@@ -1249,105 +1289,81 @@
         <v>90</v>
       </c>
       <c r="B70" s="14">
-        <v>10.0</v>
+        <v>9.6</v>
       </c>
       <c r="C70" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="D70" s="14">
-        <v>8.7</v>
-      </c>
-      <c r="E70" s="14">
-        <v>8.6</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="D70" s="19">
+        <v>10.1</v>
+      </c>
+      <c r="E70" s="18"/>
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="17">
-        <v>21.0</v>
+      <c r="B71" s="14">
+        <v>11.4</v>
+      </c>
+      <c r="C71" s="14">
+        <v>12.3</v>
+      </c>
+      <c r="D71" s="14">
+        <v>11.6</v>
+      </c>
+      <c r="E71" s="14">
+        <v>11.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="14">
-        <v>9.6</v>
-      </c>
-      <c r="C72" s="17">
-        <v>10.1</v>
+      <c r="B72" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="C72" s="14">
+        <v>2.6</v>
       </c>
       <c r="D72" s="14">
-        <v>10.8</v>
-      </c>
-      <c r="E72" s="16"/>
+        <v>2.1</v>
+      </c>
+      <c r="E72" s="14">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="14">
-        <v>11.4</v>
+      <c r="B73" s="15">
+        <v>13.1</v>
       </c>
       <c r="C73" s="14">
-        <v>11.6</v>
+        <v>13.1</v>
       </c>
       <c r="D73" s="14">
-        <v>12.3</v>
+        <v>13.0</v>
       </c>
       <c r="E73" s="14">
-        <v>11.4</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="15"/>
+      <c r="B74" s="14">
+        <v>1.2</v>
+      </c>
       <c r="C74" s="14">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="D74" s="14">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="E74" s="14">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="D75" s="14">
-        <v>13.1</v>
-      </c>
-      <c r="E75" s="14">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B76" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="C76" s="14">
-        <v>1.1</v>
-      </c>
-      <c r="D76" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="E76" s="14">
         <v>0.8</v>
       </c>
     </row>

--- a/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Health_Suicide_Rate_OECD_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Health_Suicide_Rate_OECD_2013" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>original_title</t>
   </si>
@@ -222,12 +222,6 @@
   </si>
   <si>
     <t>Chile</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
   </si>
   <si>
     <t>Czech Republic</t>
@@ -327,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -354,6 +348,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -396,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -440,6 +438,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -743,10 +747,10 @@
         <v>2014.0</v>
       </c>
       <c r="C37" s="12">
+        <v>2013.0</v>
+      </c>
+      <c r="D37" s="12">
         <v>2012.0</v>
-      </c>
-      <c r="D37" s="12">
-        <v>2013.0</v>
       </c>
       <c r="E37" s="12">
         <v>2011.0</v>
@@ -760,10 +764,10 @@
         <v>12.2</v>
       </c>
       <c r="C38" s="14">
+        <v>11.1</v>
+      </c>
+      <c r="D38" s="14">
         <v>11.4</v>
-      </c>
-      <c r="D38" s="14">
-        <v>11.1</v>
       </c>
       <c r="E38" s="14">
         <v>10.6</v>
@@ -777,10 +781,10 @@
         <v>13.9</v>
       </c>
       <c r="C39" s="14">
+        <v>13.6</v>
+      </c>
+      <c r="D39" s="14">
         <v>13.7</v>
-      </c>
-      <c r="D39" s="14">
-        <v>13.6</v>
       </c>
       <c r="E39" s="14">
         <v>14.1</v>
@@ -790,12 +794,14 @@
       <c r="A40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="15">
+        <v>16.7</v>
+      </c>
       <c r="C40" s="14">
+        <v>16.7</v>
+      </c>
+      <c r="D40" s="14">
         <v>17.4</v>
-      </c>
-      <c r="D40" s="14">
-        <v>16.7</v>
       </c>
       <c r="E40" s="14">
         <v>18.1</v>
@@ -805,7 +811,9 @@
       <c r="A41" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="15">
+        <v>5.8</v>
+      </c>
       <c r="C41" s="14">
         <v>5.8</v>
       </c>
@@ -820,10 +828,12 @@
       <c r="A42" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="17">
+      <c r="B42" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19">
         <v>10.5</v>
       </c>
     </row>
@@ -831,12 +841,14 @@
       <c r="A43" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="15">
+        <v>12.2</v>
+      </c>
       <c r="C43" s="14">
+        <v>12.2</v>
+      </c>
+      <c r="D43" s="14">
         <v>12.0</v>
-      </c>
-      <c r="D43" s="14">
-        <v>12.2</v>
       </c>
       <c r="E43" s="14">
         <v>12.1</v>
@@ -846,12 +858,14 @@
       <c r="A44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="15">
+        <v>10.3</v>
+      </c>
       <c r="C44" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="D44" s="14">
         <v>11.0</v>
-      </c>
-      <c r="D44" s="14">
-        <v>10.3</v>
       </c>
       <c r="E44" s="14">
         <v>12.3</v>
@@ -861,45 +875,49 @@
       <c r="A45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="14">
+        <v>13.3</v>
+      </c>
       <c r="C45" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17">
-        <v>4.8</v>
+        <v>14.2</v>
+      </c>
+      <c r="D45" s="14">
+        <v>14.7</v>
+      </c>
+      <c r="E45" s="14">
+        <v>14.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="14">
+        <v>10.7</v>
+      </c>
       <c r="C46" s="14">
-        <v>6.6</v>
+        <v>10.8</v>
       </c>
       <c r="D46" s="14">
-        <v>6.9</v>
+        <v>10.5</v>
       </c>
       <c r="E46" s="14">
-        <v>7.0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="14">
-        <v>13.3</v>
-      </c>
-      <c r="C47" s="14">
-        <v>14.7</v>
-      </c>
+      <c r="B47" s="15">
+        <v>11.3</v>
+      </c>
+      <c r="C47" s="18"/>
       <c r="D47" s="14">
-        <v>14.2</v>
-      </c>
-      <c r="E47" s="14">
-        <v>14.3</v>
+        <v>11.3</v>
+      </c>
+      <c r="E47" s="19">
+        <v>10.2</v>
       </c>
     </row>
     <row r="48">
@@ -907,29 +925,33 @@
         <v>68</v>
       </c>
       <c r="B48" s="14">
-        <v>10.7</v>
+        <v>7.5</v>
       </c>
       <c r="C48" s="14">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="D48" s="14">
-        <v>10.8</v>
+        <v>6.9</v>
       </c>
       <c r="E48" s="14">
-        <v>10.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="14">
+        <v>17.3</v>
+      </c>
       <c r="C49" s="14">
-        <v>11.3</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17">
-        <v>10.2</v>
+        <v>15.2</v>
+      </c>
+      <c r="D49" s="14">
+        <v>16.6</v>
+      </c>
+      <c r="E49" s="14">
+        <v>15.3</v>
       </c>
     </row>
     <row r="50">
@@ -937,183 +959,199 @@
         <v>70</v>
       </c>
       <c r="B50" s="14">
-        <v>7.5</v>
+        <v>14.2</v>
       </c>
       <c r="C50" s="14">
-        <v>6.9</v>
+        <v>15.8</v>
       </c>
       <c r="D50" s="14">
-        <v>7.5</v>
+        <v>15.6</v>
       </c>
       <c r="E50" s="14">
-        <v>6.3</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="14">
-        <v>17.3</v>
+      <c r="B51" s="15">
+        <v>14.4</v>
       </c>
       <c r="C51" s="14">
-        <v>16.6</v>
+        <v>14.4</v>
       </c>
       <c r="D51" s="14">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="E51" s="14">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="14">
-        <v>14.2</v>
+      <c r="B52" s="15">
+        <v>7.5</v>
       </c>
       <c r="C52" s="14">
-        <v>15.6</v>
+        <v>7.5</v>
       </c>
       <c r="D52" s="14">
-        <v>15.8</v>
+        <v>6.9</v>
       </c>
       <c r="E52" s="14">
-        <v>16.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="14">
-        <v>14.6</v>
-      </c>
+      <c r="B53" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="C53" s="18"/>
       <c r="D53" s="14">
-        <v>14.4</v>
-      </c>
-      <c r="E53" s="14">
-        <v>15.8</v>
+        <v>4.2</v>
+      </c>
+      <c r="E53" s="19">
+        <v>3.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="14">
+        <v>18.0</v>
+      </c>
       <c r="C54" s="14">
-        <v>6.9</v>
+        <v>19.4</v>
       </c>
       <c r="D54" s="14">
-        <v>7.5</v>
+        <v>22.0</v>
       </c>
       <c r="E54" s="14">
-        <v>6.9</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="15">
+        <v>10.8</v>
+      </c>
       <c r="C55" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17">
-        <v>3.9</v>
+        <v>10.8</v>
+      </c>
+      <c r="D55" s="14">
+        <v>12.1</v>
+      </c>
+      <c r="E55" s="14">
+        <v>12.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="14">
-        <v>18.0</v>
+      <c r="B56" s="15">
+        <v>5.5</v>
       </c>
       <c r="C56" s="14">
-        <v>22.0</v>
+        <v>5.5</v>
       </c>
       <c r="D56" s="14">
-        <v>19.4</v>
+        <v>6.4</v>
       </c>
       <c r="E56" s="14">
-        <v>22.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="14">
-        <v>12.1</v>
-      </c>
+      <c r="B57" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="C57" s="18"/>
       <c r="D57" s="14">
-        <v>10.8</v>
-      </c>
-      <c r="E57" s="14">
-        <v>12.2</v>
+        <v>6.3</v>
+      </c>
+      <c r="E57" s="19">
+        <v>6.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="15"/>
+      <c r="B58" s="15">
+        <v>18.7</v>
+      </c>
       <c r="C58" s="14">
-        <v>6.4</v>
+        <v>18.7</v>
       </c>
       <c r="D58" s="14">
-        <v>5.5</v>
+        <v>19.1</v>
       </c>
       <c r="E58" s="14">
-        <v>6.2</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="15">
+        <v>28.7</v>
+      </c>
       <c r="C59" s="14">
-        <v>6.3</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17">
-        <v>6.2</v>
+        <v>28.7</v>
+      </c>
+      <c r="D59" s="14">
+        <v>29.1</v>
+      </c>
+      <c r="E59" s="14">
+        <v>33.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="14">
+        <v>27.1</v>
+      </c>
       <c r="C60" s="14">
-        <v>19.1</v>
+        <v>31.5</v>
       </c>
       <c r="D60" s="14">
-        <v>18.7</v>
+        <v>29.5</v>
       </c>
       <c r="E60" s="14">
-        <v>20.9</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="14">
+        <v>12.3</v>
+      </c>
       <c r="C61" s="14">
-        <v>29.1</v>
+        <v>7.3</v>
       </c>
       <c r="D61" s="14">
-        <v>28.7</v>
+        <v>9.4</v>
       </c>
       <c r="E61" s="14">
-        <v>33.3</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="62">
@@ -1121,93 +1159,99 @@
         <v>82</v>
       </c>
       <c r="B62" s="14">
-        <v>27.1</v>
+        <v>16.3</v>
       </c>
       <c r="C62" s="14">
-        <v>29.5</v>
+        <v>16.1</v>
       </c>
       <c r="D62" s="14">
-        <v>31.5</v>
+        <v>20.5</v>
       </c>
       <c r="E62" s="14">
-        <v>32.2</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="14">
-        <v>12.3</v>
+      <c r="B63" s="15">
+        <v>5.2</v>
       </c>
       <c r="C63" s="14">
-        <v>9.4</v>
+        <v>5.2</v>
       </c>
       <c r="D63" s="14">
-        <v>7.3</v>
+        <v>5.0</v>
       </c>
       <c r="E63" s="14">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="14">
-        <v>16.3</v>
-      </c>
-      <c r="C64" s="14">
-        <v>20.5</v>
-      </c>
+      <c r="B64" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="C64" s="18"/>
       <c r="D64" s="14">
-        <v>16.1</v>
-      </c>
-      <c r="E64" s="14">
-        <v>19.9</v>
+        <v>10.0</v>
+      </c>
+      <c r="E64" s="19">
+        <v>9.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="15"/>
+      <c r="B65" s="15">
+        <v>10.5</v>
+      </c>
       <c r="C65" s="14">
-        <v>5.0</v>
+        <v>10.5</v>
       </c>
       <c r="D65" s="14">
-        <v>5.2</v>
+        <v>10.2</v>
       </c>
       <c r="E65" s="14">
-        <v>5.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="15"/>
+      <c r="B66" s="14">
+        <v>10.9</v>
+      </c>
       <c r="C66" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="17">
-        <v>9.5</v>
+        <v>10.8</v>
+      </c>
+      <c r="D66" s="14">
+        <v>12.4</v>
+      </c>
+      <c r="E66" s="14">
+        <v>11.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="15"/>
+      <c r="B67" s="14">
+        <v>14.7</v>
+      </c>
       <c r="C67" s="14">
-        <v>10.2</v>
+        <v>15.3</v>
       </c>
       <c r="D67" s="14">
-        <v>10.5</v>
+        <v>15.7</v>
       </c>
       <c r="E67" s="14">
-        <v>12.1</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="68">
@@ -1215,33 +1259,29 @@
         <v>88</v>
       </c>
       <c r="B68" s="14">
-        <v>10.9</v>
+        <v>10.0</v>
       </c>
       <c r="C68" s="14">
-        <v>12.4</v>
+        <v>8.7</v>
       </c>
       <c r="D68" s="14">
-        <v>10.8</v>
+        <v>9.0</v>
       </c>
       <c r="E68" s="14">
-        <v>11.3</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="14">
-        <v>14.7</v>
-      </c>
-      <c r="C69" s="14">
-        <v>15.7</v>
-      </c>
-      <c r="D69" s="14">
-        <v>15.3</v>
-      </c>
-      <c r="E69" s="14">
-        <v>15.1</v>
+      <c r="B69" s="16">
+        <v>21.0</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19">
+        <v>21.0</v>
       </c>
     </row>
     <row r="70">
@@ -1249,105 +1289,81 @@
         <v>90</v>
       </c>
       <c r="B70" s="14">
-        <v>10.0</v>
+        <v>9.6</v>
       </c>
       <c r="C70" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="D70" s="14">
-        <v>8.7</v>
-      </c>
-      <c r="E70" s="14">
-        <v>8.6</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="D70" s="19">
+        <v>10.1</v>
+      </c>
+      <c r="E70" s="18"/>
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="17">
-        <v>21.0</v>
+      <c r="B71" s="14">
+        <v>11.4</v>
+      </c>
+      <c r="C71" s="14">
+        <v>12.3</v>
+      </c>
+      <c r="D71" s="14">
+        <v>11.6</v>
+      </c>
+      <c r="E71" s="14">
+        <v>11.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="14">
-        <v>9.6</v>
-      </c>
-      <c r="C72" s="17">
-        <v>10.1</v>
+      <c r="B72" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="C72" s="14">
+        <v>2.6</v>
       </c>
       <c r="D72" s="14">
-        <v>10.8</v>
-      </c>
-      <c r="E72" s="16"/>
+        <v>2.1</v>
+      </c>
+      <c r="E72" s="14">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="14">
-        <v>11.4</v>
+      <c r="B73" s="15">
+        <v>13.1</v>
       </c>
       <c r="C73" s="14">
-        <v>11.6</v>
+        <v>13.1</v>
       </c>
       <c r="D73" s="14">
-        <v>12.3</v>
+        <v>13.0</v>
       </c>
       <c r="E73" s="14">
-        <v>11.4</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="15"/>
+      <c r="B74" s="14">
+        <v>1.2</v>
+      </c>
       <c r="C74" s="14">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="D74" s="14">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="E74" s="14">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="D75" s="14">
-        <v>13.1</v>
-      </c>
-      <c r="E75" s="14">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B76" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="C76" s="14">
-        <v>1.1</v>
-      </c>
-      <c r="D76" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="E76" s="14">
         <v>0.8</v>
       </c>
     </row>

--- a/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -463,7 +463,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Health_Suicide_Rate_OECD_2014.xlsx
@@ -463,7 +463,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
